--- a/시사점 과정리스트(231011)_차시.xlsx
+++ b/시사점 과정리스트(231011)_차시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sisa_macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6721C0B5-BCF7-4540-8F8B-75C7AB33405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD18CB-E7CE-401B-93EC-A7E3E8B292B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{2FEF3363-4465-4989-BF7C-F52FAEE4F4FE}"/>
+    <workbookView xWindow="-38640" yWindow="2265" windowWidth="16830" windowHeight="18600" xr2:uid="{2FEF3363-4465-4989-BF7C-F52FAEE4F4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="과정리스트" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -833,9 +832,6 @@
     <t>NCS 직업기초능력평가 - 정보능력</t>
   </si>
   <si>
-    <t>NCS 직업기초능력평가 - 자기개발능력</t>
-  </si>
-  <si>
     <t>[북콘서트] 인생을 바꾸는 커리어 멘토링</t>
   </si>
   <si>
@@ -1656,6 +1652,10 @@
   </si>
   <si>
     <t>우와'한 광주-광주학 콘텐츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NCS 직업기초능력평가 - 자기개발능력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2111,18 +2111,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF99B2D-97EC-4985-BFDD-3C4683471FF1}">
   <dimension ref="B1:F477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C477" sqref="C5:C477"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" customWidth="1"/>
+    <col min="5" max="5" width="45.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="25.2" x14ac:dyDescent="0.4">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2131,19 +2131,19 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2188,455 +2188,455 @@
         <v>241</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2766,13 +2766,13 @@
         <v>241</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>262</v>
+        <v>536</v>
       </c>
       <c r="F40" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2780,16 +2780,16 @@
         <v>240</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="F41" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2800,13 +2800,13 @@
         <v>241</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2817,13 +2817,13 @@
         <v>241</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>241</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2851,13 +2851,13 @@
         <v>254</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
@@ -2868,13 +2868,13 @@
         <v>243</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F46" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2885,13 +2885,13 @@
         <v>241</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F47" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -2902,13 +2902,13 @@
         <v>241</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F48" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2919,353 +2919,353 @@
         <v>241</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="F51" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F52" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E54" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E56" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F56" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F57" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F59" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="F60" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F61" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F62" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="F64" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F65" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F66" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="F67" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F68" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F69" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="4" t="s">
         <v>7</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3616,13 +3616,13 @@
         <v>243</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F90" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3633,574 +3633,574 @@
         <v>241</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F91" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="F92" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F93" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F94" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F95" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E96" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F96" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F98" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F99" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F101" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F102" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F103" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F106" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F107" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F108" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F109" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F110" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E111" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F111" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E112" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F112" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E113" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F113" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E114" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F114" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E115" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F115" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E116" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F116" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B117" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E117" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F117" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E118" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F118" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E119" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E120" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F120" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E121" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E122" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F122" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="E123" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F123" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126" s="4" t="s">
         <v>7</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="4" t="s">
         <v>7</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
         <v>7</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
         <v>7</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135" s="4" t="s">
         <v>7</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136" s="4" t="s">
         <v>7</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -4412,475 +4412,475 @@
         <v>240</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F137" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E138" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F139" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E140" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F140" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F141" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E142" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E143" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F143" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E144" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F144" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E145" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F145" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E146" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F146" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F147" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E148" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F148" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E149" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F149" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E150" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F150" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E151" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F151" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E152" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F152" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E153" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F153" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B154" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E154" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F154" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E155" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F155" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E156" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F156" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E157" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F157" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E158" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F158" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F159" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F160" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F161" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B162" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E162" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F162" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C163" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E163" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F163" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B164" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F164" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B166" s="4" t="s">
         <v>7</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B167" s="4" t="s">
         <v>7</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B169" s="4" t="s">
         <v>7</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B170" s="4" t="s">
         <v>7</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B172" s="4" t="s">
         <v>7</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B173" s="4" t="s">
         <v>7</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B175" s="4" t="s">
         <v>7</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B176" s="4" t="s">
         <v>7</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B178" s="4" t="s">
         <v>7</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B179" s="4" t="s">
         <v>7</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B181" s="4" t="s">
         <v>7</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B182" s="4" t="s">
         <v>7</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B184" s="4" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B185" s="4" t="s">
         <v>7</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B187" s="4" t="s">
         <v>7</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B188" s="4" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B190" s="4" t="s">
         <v>7</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B191" s="4" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B193" s="4" t="s">
         <v>7</v>
       </c>
@@ -5373,160 +5373,160 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B194" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="F194" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F195" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B196" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E196" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F196" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B197" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D197" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E197" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F197" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B198" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C198" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E198" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F198" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B199" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F199" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B200" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="F200" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B201" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C201" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E201" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F201" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B202" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C202" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D202" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E202" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F202" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B203" s="4" t="s">
         <v>7</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B204" s="4" t="s">
         <v>7</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B206" s="4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B207" s="4" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B209" s="4" t="s">
         <v>7</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B210" s="4" t="s">
         <v>7</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B212" s="4" t="s">
         <v>7</v>
       </c>
@@ -5690,1067 +5690,1067 @@
         <v>241</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F212" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B213" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C213" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D213" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E213" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F213" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D214" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E214" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F214" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B215" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D215" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E215" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="F215" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B216" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F216" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F217" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B218" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F218" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B219" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F219" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F220" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B221" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F221" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B222" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F222" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F223" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B224" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F224" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B225" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F225" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F226" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B227" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F227" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B228" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F228" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F229" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B230" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F230" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B231" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F231" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F232" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B233" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D233" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E233" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="F233" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B234" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F234" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B235" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F235" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B236" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F236" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B237" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F237" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B238" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F238" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B239" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F239" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B240" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F240" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B241" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F241" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B242" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F242" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B243" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F243" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B244" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F244" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B245" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F245" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B246" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F246" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B247" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F247" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B248" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F248" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B249" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F249" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B250" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F250" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B251" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F251" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B252" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F252" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B253" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F253" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B254" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F254" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B255" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F255" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B256" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F256" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B257" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F257" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B258" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F258" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B259" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F259" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B260" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F260" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B261" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F261" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B262" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F262" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B263" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F263" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B264" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F264" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B265" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F265" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B266" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F266" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B267" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F267" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B268" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F268" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B269" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F269" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B270" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F270" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B271" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F271" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B272" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F272" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B273" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F273" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B274" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F274" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B276" s="4" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B277" s="4" t="s">
         <v>7</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B278" s="4" t="s">
         <v>7</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B279" s="4" t="s">
         <v>7</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B280" s="4" t="s">
         <v>7</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B281" s="4" t="s">
         <v>7</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B282" s="4" t="s">
         <v>7</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B283" s="4" t="s">
         <v>7</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B284" s="4" t="s">
         <v>7</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B285" s="4" t="s">
         <v>7</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B286" s="4" t="s">
         <v>7</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B287" s="4" t="s">
         <v>7</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B288" s="4" t="s">
         <v>7</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B289" s="4" t="s">
         <v>7</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B290" s="4" t="s">
         <v>7</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B291" s="4" t="s">
         <v>7</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B292" s="4" t="s">
         <v>7</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B293" s="4" t="s">
         <v>7</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B294" s="4" t="s">
         <v>7</v>
       </c>
@@ -7090,24 +7090,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B295" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C295" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D295" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D295" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E295" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F295" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B296" s="4" t="s">
         <v>7</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B297" s="4" t="s">
         <v>7</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B298" s="4" t="s">
         <v>7</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B299" s="4" t="s">
         <v>7</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B300" s="4" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B301" s="4" t="s">
         <v>7</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B302" s="4" t="s">
         <v>7</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B303" s="4" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B304" s="4" t="s">
         <v>7</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B305" s="4" t="s">
         <v>7</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B306" s="4" t="s">
         <v>7</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B307" s="4" t="s">
         <v>7</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B308" s="4" t="s">
         <v>7</v>
       </c>
@@ -7322,13 +7322,13 @@
         <v>241</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F308" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B309" s="4" t="s">
         <v>7</v>
       </c>
@@ -7339,13 +7339,13 @@
         <v>241</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F309" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B310" s="4" t="s">
         <v>7</v>
       </c>
@@ -7356,13 +7356,13 @@
         <v>241</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F310" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B311" s="4" t="s">
         <v>7</v>
       </c>
@@ -7373,115 +7373,115 @@
         <v>241</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F311" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B312" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D312" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E312" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E312" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="F312" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B313" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F313" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B314" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C314" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D314" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D314" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E314" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F314" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B315" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F315" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B316" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E316" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F316" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B317" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E317" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="F316" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B317" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D317" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="F317" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B318" s="4" t="s">
         <v>7</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B319" s="4" t="s">
         <v>7</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B320" s="4" t="s">
         <v>7</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B321" s="4" t="s">
         <v>7</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B322" s="4" t="s">
         <v>7</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B323" s="4" t="s">
         <v>7</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B324" s="4" t="s">
         <v>7</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B325" s="4" t="s">
         <v>7</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B326" s="4" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B327" s="4" t="s">
         <v>7</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B328" s="4" t="s">
         <v>7</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B329" s="4" t="s">
         <v>7</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B330" s="4" t="s">
         <v>7</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B331" s="4" t="s">
         <v>7</v>
       </c>
@@ -7713,13 +7713,13 @@
         <v>241</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F331" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B332" s="4" t="s">
         <v>7</v>
       </c>
@@ -7730,13 +7730,13 @@
         <v>243</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F332" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B333" s="4" t="s">
         <v>7</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B334" s="4" t="s">
         <v>7</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B335" s="4" t="s">
         <v>7</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B336" s="4" t="s">
         <v>7</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B337" s="4" t="s">
         <v>7</v>
       </c>
@@ -7821,143 +7821,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B338" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D338" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D338" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E338" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F338" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B339" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C339" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D339" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D339" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E339" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F339" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B340" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F340" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B341" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C341" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D341" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D341" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E341" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F341" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B342" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F342" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B343" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C343" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D343" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D343" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E343" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F343" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B344" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C344" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D344" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D344" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E344" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F344" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B345" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F345" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B346" s="4" t="s">
         <v>7</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B347" s="4" t="s">
         <v>7</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B348" s="4" t="s">
         <v>7</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B349" s="4" t="s">
         <v>7</v>
       </c>
@@ -8019,64 +8019,64 @@
         <v>243</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F349" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B350" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C350" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D350" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D350" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E350" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F350" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B351" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F351" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B352" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D352" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D352" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E352" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F352" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B353" s="4" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B354" s="4" t="s">
         <v>7</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B355" s="4" t="s">
         <v>7</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B356" s="4" t="s">
         <v>7</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B357" s="4" t="s">
         <v>7</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B358" s="4" t="s">
         <v>7</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B359" s="4" t="s">
         <v>7</v>
       </c>
@@ -8189,30 +8189,30 @@
         <v>241</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F359" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B360" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C360" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D360" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D360" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E360" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F360" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B361" s="4" t="s">
         <v>7</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B362" s="4" t="s">
         <v>7</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B363" s="4" t="s">
         <v>7</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B364" s="4" t="s">
         <v>7</v>
       </c>
@@ -8274,64 +8274,64 @@
         <v>243</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F364" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B365" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F365" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B366" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D366" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E366" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="F366" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B367" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F367" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B368" s="4" t="s">
         <v>7</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B369" s="4" t="s">
         <v>7</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B370" s="4" t="s">
         <v>7</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B371" s="4" t="s">
         <v>7</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B372" s="4" t="s">
         <v>7</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B373" s="4" t="s">
         <v>7</v>
       </c>
@@ -8433,24 +8433,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B374" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F374" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B375" s="4" t="s">
         <v>7</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B376" s="4" t="s">
         <v>7</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B377" s="4" t="s">
         <v>7</v>
       </c>
@@ -8495,13 +8495,13 @@
         <v>243</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F377" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B378" s="4" t="s">
         <v>7</v>
       </c>
@@ -8512,234 +8512,234 @@
         <v>254</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F378" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B379" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C379" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E379" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="D379" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E379" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="F379" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B380" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F380" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B381" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F381" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B382" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F382" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B383" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F383" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B384" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F384" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B385" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D385" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E385" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="E385" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="F385" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B386" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D386" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E386" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="F386" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B387" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F387" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B388" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F388" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B389" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F389" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B390" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F390" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B391" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F391" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B392" s="4" t="s">
         <v>7</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B393" s="4" t="s">
         <v>7</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B394" s="4" t="s">
         <v>7</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B395" s="4" t="s">
         <v>7</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B396" s="4" t="s">
         <v>7</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B397" s="4" t="s">
         <v>7</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B398" s="4" t="s">
         <v>7</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B399" s="4" t="s">
         <v>7</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B400" s="4" t="s">
         <v>7</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B401" s="4" t="s">
         <v>7</v>
       </c>
@@ -8900,84 +8900,84 @@
         <v>240</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F401" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B402" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D402" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E402" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="E402" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="F402" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B403" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F403" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B404" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F404" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B405" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C405" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D405" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D405" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="E405" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F405" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B406" s="4" t="s">
         <v>7</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B407" s="4" t="s">
         <v>7</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B408" s="4" t="s">
         <v>7</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B409" s="4" t="s">
         <v>7</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B410" s="4" t="s">
         <v>7</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B411" s="4" t="s">
         <v>7</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B412" s="4" t="s">
         <v>7</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B413" s="4" t="s">
         <v>7</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B414" s="4" t="s">
         <v>7</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B415" s="4" t="s">
         <v>7</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B416" s="4" t="s">
         <v>7</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B417" s="4" t="s">
         <v>7</v>
       </c>
@@ -9175,13 +9175,13 @@
         <v>241</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F417" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B418" s="4" t="s">
         <v>7</v>
       </c>
@@ -9192,13 +9192,13 @@
         <v>243</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F418" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B419" s="4" t="s">
         <v>7</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B420" s="4" t="s">
         <v>7</v>
       </c>
@@ -9226,30 +9226,30 @@
         <v>243</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F420" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B421" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C421" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D421" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D421" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E421" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F421" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B422" s="4" t="s">
         <v>7</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B423" s="4" t="s">
         <v>7</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B424" s="4" t="s">
         <v>7</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B425" s="4" t="s">
         <v>7</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B426" s="4" t="s">
         <v>7</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B427" s="4" t="s">
         <v>7</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B428" s="4" t="s">
         <v>7</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B429" s="4" t="s">
         <v>7</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B430" s="4" t="s">
         <v>7</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B431" s="4" t="s">
         <v>7</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B432" s="4" t="s">
         <v>7</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B433" s="4" t="s">
         <v>7</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B434" s="4" t="s">
         <v>7</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B435" s="4" t="s">
         <v>7</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B436" s="4" t="s">
         <v>7</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B437" s="4" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B438" s="4" t="s">
         <v>7</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B439" s="4" t="s">
         <v>7</v>
       </c>
@@ -9549,13 +9549,13 @@
         <v>241</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F439" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B440" s="4" t="s">
         <v>7</v>
       </c>
@@ -9566,13 +9566,13 @@
         <v>241</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F440" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B441" s="4" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B442" s="4" t="s">
         <v>7</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B443" s="4" t="s">
         <v>7</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B444" s="4" t="s">
         <v>7</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B445" s="4" t="s">
         <v>7</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B446" s="4" t="s">
         <v>7</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B447" s="4" t="s">
         <v>7</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B448" s="4" t="s">
         <v>7</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B449" s="4" t="s">
         <v>7</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B450" s="4" t="s">
         <v>7</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B451" s="4" t="s">
         <v>7</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B452" s="4" t="s">
         <v>7</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B453" s="4" t="s">
         <v>7</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B454" s="4" t="s">
         <v>7</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B455" s="4" t="s">
         <v>7</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B456" s="4" t="s">
         <v>7</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B457" s="4" t="s">
         <v>7</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B458" s="4" t="s">
         <v>7</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B459" s="4" t="s">
         <v>7</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B460" s="4" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B461" s="4" t="s">
         <v>7</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B462" s="4" t="s">
         <v>7</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B463" s="4" t="s">
         <v>7</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B464" s="4" t="s">
         <v>7</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B465" s="4" t="s">
         <v>7</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B466" s="4" t="s">
         <v>7</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B467" s="4" t="s">
         <v>7</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B468" s="4" t="s">
         <v>7</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B469" s="4" t="s">
         <v>7</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B470" s="4" t="s">
         <v>7</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B471" s="4" t="s">
         <v>7</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B472" s="4" t="s">
         <v>7</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B473" s="4" t="s">
         <v>7</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B474" s="4" t="s">
         <v>7</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B475" s="4" t="s">
         <v>7</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B476" s="4" t="s">
         <v>7</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B477" s="4" t="s">
         <v>7</v>
       </c>
